--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1271250.481842829</v>
+        <v>1268871.557637825</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>98.48275147672717</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -786,13 +786,13 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>83.96848495489223</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>238.1138357058009</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>91.61745183476964</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>271.2903285220042</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>19.78589926923118</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>20.95866062610961</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>352.4636206515387</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>291.1225850805483</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>217.935806728688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>33.5449575829791</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24.05059624930342</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>183.8277066100262</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>82.18274768788473</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890387</v>
+        <v>124.2517742705965</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>145.3715139986192</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.479586725395365</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>58.24570521548602</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.0780236353764</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>104.4262124629284</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238289</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>22.65115569188744</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>194.4027115485082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>109.8058856274578</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>38.61213096654735</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016461</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>64.91921363453477</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2029.57251526313</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1660.609998322719</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1302.344299715968</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>916.5560471177239</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>505.5701423281163</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4346,10 +4346,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.57251526313</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.57251526313</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>444.4359021818241</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>444.4359021818241</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>444.4359021818241</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4495,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>444.4359021818241</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W4" t="n">
-        <v>444.4359021818241</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X4" t="n">
-        <v>444.4359021818241</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>444.4359021818241</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1619.798686923957</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1250.836169983545</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3122.772272495085</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3122.772272495085</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3122.772272495085</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="W5" t="n">
-        <v>2770.00361722497</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X5" t="n">
-        <v>2396.53785896389</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y5" t="n">
-        <v>2006.398526988078</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>900.9012489805776</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>900.9012489805776</v>
       </c>
       <c r="T7" t="n">
-        <v>899.7166415493873</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="U7" t="n">
-        <v>610.6137746750309</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="V7" t="n">
-        <v>355.929286469144</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2244.121949002409</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1875.159432061997</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D8" t="n">
-        <v>1516.893733455247</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E8" t="n">
-        <v>1131.105480857002</v>
+        <v>378.5528805490654</v>
       </c>
       <c r="F8" t="n">
-        <v>720.1195760673947</v>
+        <v>371.6073797998619</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>360.5753336852625</v>
       </c>
       <c r="H8" t="n">
         <v>66.5121164321834</v>
@@ -4829,25 +4829,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066531</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.721789066531</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>2630.721789066531</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
         <v>66.5121164321834</v>
@@ -5005,7 +5005,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>240.7066105458839</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="C13" t="n">
-        <v>240.7066105458839</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458839</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>140.7528025687996</v>
@@ -5221,28 +5221,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1190.65500321726</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>971.0535382402009</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U13" t="n">
-        <v>971.0535382402009</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V13" t="n">
-        <v>750.9163597263746</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W13" t="n">
-        <v>461.499189689414</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="X13" t="n">
-        <v>461.499189689414</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="Y13" t="n">
-        <v>240.7066105458839</v>
+        <v>573.4948608729404</v>
       </c>
     </row>
     <row r="14">
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5282,19 +5282,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.0232881953179</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C16" t="n">
-        <v>266.0232881953179</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1440.555541309953</v>
       </c>
       <c r="V16" t="n">
-        <v>1185.871053104066</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W16" t="n">
-        <v>896.4538830671052</v>
+        <v>1151.138371272992</v>
       </c>
       <c r="X16" t="n">
-        <v>668.4643321690878</v>
+        <v>923.1488203749748</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.6717530255577</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5516,22 +5516,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T19" t="n">
-        <v>1440.555541309953</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U19" t="n">
-        <v>1440.555541309953</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V19" t="n">
-        <v>1185.871053104066</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="W19" t="n">
-        <v>1102.858176651657</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="X19" t="n">
-        <v>874.8686257536381</v>
+        <v>623.517172634424</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.8686257536381</v>
+        <v>402.7245934908939</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>612.4182386381636</v>
+        <v>429.9489452609988</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4182386381636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>381.7182656184144</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>772.1168597943545</v>
       </c>
       <c r="M22" t="n">
-        <v>1129.437033731427</v>
+        <v>1194.126562525389</v>
       </c>
       <c r="N22" t="n">
-        <v>1546.846905391435</v>
+        <v>1611.536434185397</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.37618610042</v>
+        <v>1981.065714894382</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673979</v>
+        <v>2273.741170467941</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400878</v>
+        <v>2328.249876400866</v>
       </c>
       <c r="R22" t="n">
-        <v>2261.204172653281</v>
+        <v>2261.204172653269</v>
       </c>
       <c r="S22" t="n">
-        <v>2078.349338308185</v>
+        <v>2078.349338308173</v>
       </c>
       <c r="T22" t="n">
-        <v>1858.747873331126</v>
+        <v>1858.747873331115</v>
       </c>
       <c r="U22" t="n">
-        <v>1569.672646675324</v>
+        <v>1569.672646675312</v>
       </c>
       <c r="V22" t="n">
-        <v>1314.988158469437</v>
+        <v>1314.988158469425</v>
       </c>
       <c r="W22" t="n">
-        <v>1025.570988432476</v>
+        <v>1025.570988432465</v>
       </c>
       <c r="X22" t="n">
-        <v>797.5814375344593</v>
+        <v>797.5814375344472</v>
       </c>
       <c r="Y22" t="n">
-        <v>794.0667034684034</v>
+        <v>576.7888583909171</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2341.482060890434</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2341.482060890434</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U28" t="n">
-        <v>2052.406834234632</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1797.722346028744</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6555,10 +6555,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6598,13 +6598,13 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>430.7826650753331</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2269.002343845332</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="T37" t="n">
-        <v>2049.400878868273</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>446.9048623224643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>300.0149148245539</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>132.8188155394338</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>132.8188155394338</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2131.487582220359</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2131.487582220359</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1876.803094014472</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9556,16 +9556,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>85.81063556089106</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>58.597330425221</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
         <v>171.8177168444618</v>
@@ -9577,7 +9577,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.20183659514001</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>185.0396957691157</v>
       </c>
     </row>
     <row r="14">
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>124.5648767689089</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856724</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>34.75694674206858</v>
       </c>
     </row>
     <row r="17">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,25 +23938,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>204.3402506487063</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>101.4578811184407</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>34.46046618331814</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.1050666266994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012262</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.506629716718351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>76.6000735387162</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>4.845153664065123</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>123.7828069546817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24968,7 +24968,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>92.12028678808278</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>71.22040037418684</v>
+        <v>48.39475227997582</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.65370535201819</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012319</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>152.4862366927535</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900719.5099585133</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937886.7875718604</v>
+        <v>937886.7875718599</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>942857.2448038028</v>
+        <v>942857.2448038029</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>942857.2448038028</v>
+        <v>942857.2448038029</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>942857.2448038027</v>
+        <v>942857.2448038028</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>942857.2448038028</v>
+        <v>942857.2448038027</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>942857.2448038028</v>
+        <v>942857.2448038027</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>469940.613891398</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="F2" t="n">
-        <v>469940.613891398</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="G2" t="n">
         <v>469940.6138913981</v>
       </c>
       <c r="H2" t="n">
-        <v>482595.5843324544</v>
+        <v>482595.5843324541</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="M2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="M2" t="n">
-        <v>484287.9598140036</v>
-      </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>761.3882086835451</v>
@@ -26433,28 +26433,28 @@
         <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>13705.5856040094</v>
+        <v>13705.58560400923</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1037650.368474468</v>
+        <v>-1037650.368474469</v>
       </c>
       <c r="C6" t="n">
         <v>291094.377253124</v>
       </c>
       <c r="D6" t="n">
-        <v>291094.377253124</v>
+        <v>291094.3772531241</v>
       </c>
       <c r="E6" t="n">
-        <v>42644.23405145212</v>
+        <v>42549.71551800576</v>
       </c>
       <c r="F6" t="n">
-        <v>368056.6958588074</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="G6" t="n">
-        <v>368056.6958588074</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="H6" t="n">
-        <v>367767.4689045378</v>
+        <v>367725.6794145957</v>
       </c>
       <c r="I6" t="n">
-        <v>367728.789983217</v>
+        <v>367694.052057781</v>
       </c>
       <c r="J6" t="n">
-        <v>150197.5875859394</v>
+        <v>150162.8496605036</v>
       </c>
       <c r="K6" t="n">
-        <v>367728.7899832167</v>
+        <v>367694.052057781</v>
       </c>
       <c r="L6" t="n">
-        <v>367728.7899832168</v>
+        <v>367694.052057781</v>
       </c>
       <c r="M6" t="n">
-        <v>282673.7620477049</v>
+        <v>282639.0241222694</v>
       </c>
       <c r="N6" t="n">
-        <v>367728.7899832167</v>
+        <v>367694.0520577812</v>
       </c>
       <c r="O6" t="n">
-        <v>367728.7899832169</v>
+        <v>367694.0520577813</v>
       </c>
       <c r="P6" t="n">
-        <v>367728.7899832167</v>
+        <v>367694.0520577811</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>312.4389741767263</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>62.46547769167694</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27588,13 +27588,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>14.02380761802706</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>112.3005183048505</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>56.46192994813072</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>69.14625340081615</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>198.5902886500596</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>58.4581050019147</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3.485179306772181</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>243.3994576258735</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>306.3600965168205</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
